--- a/participants/participant_38/participant_38_task_orders.xlsx
+++ b/participants/participant_38/participant_38_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731194242716" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731223695858" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731223704994" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731224184983" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731224805286" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912554544604" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912581383464" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912581383464" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912582010183" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291258280236" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731193912737.csv</t>
+          <t>go_stims-16502912554246917.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873119407271.csv</t>
+          <t>GNG_stims-16502912554379964.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873119408277.csv</t>
+          <t>go_stims-16502912554398026.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731194232707.csv</t>
+          <t>GNG_stims-16502912554534283.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1649873120525494.csv</t>
+          <t>ZB-match_0-16502912560713222.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873120227491.csv</t>
+          <t>ZB-match_2-16502912563351932.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498731223535259.csv</t>
+          <t>TB-16502912581246355.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731218934934.csv</t>
+          <t>OB-16502912566635165.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498731199294953.csv</t>
+          <t>TB-16502912578361993.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1649873121142528.csv</t>
+          <t>OB-1650291256517527.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498731207654905.csv</t>
+          <t>OB-16502912571252935.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731198754933.csv</t>
+          <t>TB-16502912574955223.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16498731201384947.csv</t>
+          <t>ZB-match_6-16502912558641214.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731223855271.csv</t>
+          <t>MM_stims-16502912581542041.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873122372494.csv</t>
+          <t>ZM_stims-16502912581415367.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731224015265.csv</t>
+          <t>MM_stims-16502912581853528.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731223864963.csv</t>
+          <t>ZM_stims-16502912581552098.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873122417498.csv</t>
+          <t>MM_stims-16502912582010183.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731224024918.csv</t>
+          <t>ZM_stims-1650291258186356.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731224335275.csv</t>
+          <t>SAT_stims-16502912582044687.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731224495282.csv</t>
+          <t>SAT_stims-16502912582167177.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731224654932.csv</t>
+          <t>vSAT_stims-16502912582623954.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731224214926.csv</t>
+          <t>vSAT_stims-16502912582322955.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_38/participant_38_task_orders.xlsx
+++ b/participants/participant_38/participant_38_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912554544604" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912581383464" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912581383464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912582010183" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291258280236" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778717464905" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778737005248" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477873706491" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778737654963" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778738285253" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912554246917.csv</t>
+          <t>go_stims-16504778717036676.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912554379964.csv</t>
+          <t>GNG_stims-16504778717296362.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912554398026.csv</t>
+          <t>go_stims-1650477871731491.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912554534283.csv</t>
+          <t>GNG_stims-1650477871745524.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912560713222.csv</t>
+          <t>OB-165047787322149.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912563351932.csv</t>
+          <t>ZB-match_2-1650477872050497.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912581246355.csv</t>
+          <t>TB-16504778735515144.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502912566635165.csv</t>
+          <t>OB-16504778729044964.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912578361993.csv</t>
+          <t>TB-16504778734575288.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650291256517527.csv</t>
+          <t>TB-16504778736865246.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912571252935.csv</t>
+          <t>ZB-match_1-16504778722724934.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912574955223.csv</t>
+          <t>ZB-match_7-1650477871899526.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912558641214.csv</t>
+          <t>OB-16504778728025267.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912581542041.csv</t>
+          <t>MM_stims-16504778737325244.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912581415367.csv</t>
+          <t>ZM_stims-16504778737084918.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912581853528.csv</t>
+          <t>MM_stims-16504778737485242.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912581552098.csv</t>
+          <t>ZM_stims-16504778737334921.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912582010183.csv</t>
+          <t>MM_stims-16504778737644894.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291258186356.csv</t>
+          <t>ZM_stims-16504778737494905.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912582044687.csv</t>
+          <t>vSAT_stims-16504778737965252.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912582167177.csv</t>
+          <t>SAT_stims-16504778737684903.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912582623954.csv</t>
+          <t>vSAT_stims-16504778738125253.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912582322955.csv</t>
+          <t>SAT_stims-16504778737805257.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_38/participant_38_task_orders.xlsx
+++ b/participants/participant_38/participant_38_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778717464905" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778737005248" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477873706491" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778737654963" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778738285253" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961675314205" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961709153838" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961709153838" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961709874165" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961710514162" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778717036676.csv</t>
+          <t>go_stims-16509961674993823.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778717296362.csv</t>
+          <t>GNG_stims-16509961675154276.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477871731491.csv</t>
+          <t>go_stims-16509961675154276.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477871745524.csv</t>
+          <t>GNG_stims-16509961675314205.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-165047787322149.csv</t>
+          <t>OB-16509961694833794.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650477872050497.csv</t>
+          <t>TB-16509961704034219.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778735515144.csv</t>
+          <t>ZB-match_4-16509961677394195.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778729044964.csv</t>
+          <t>TB-16509961708913774.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778734575288.csv</t>
+          <t>TB-16509961699074192.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778736865246.csv</t>
+          <t>ZB-match_0-16509961675633843.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778722724934.csv</t>
+          <t>ZB-match_7-16509961677633908.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650477871899526.csv</t>
+          <t>OB-16509961685233817.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778728025267.csv</t>
+          <t>OB-16509961680353801.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778737325244.csv</t>
+          <t>MM_stims-16509961709474149.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778737084918.csv</t>
+          <t>ZM_stims-16509961709233828.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778737485242.csv</t>
+          <t>MM_stims-16509961709713814.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778737334921.csv</t>
+          <t>ZM_stims-16509961709474149.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778737644894.csv</t>
+          <t>MM_stims-16509961709874165.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778737494905.csv</t>
+          <t>ZM_stims-16509961709713814.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778737965252.csv</t>
+          <t>vSAT_stims-16509961710354185.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778737684903.csv</t>
+          <t>SAT_stims-1650996171003415.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778738125253.csv</t>
+          <t>SAT_stims-16509961709874165.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778737805257.csv</t>
+          <t>vSAT_stims-16509961710194142.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_38/participant_38_task_orders.xlsx
+++ b/participants/participant_38/participant_38_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961675314205" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961709153838" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961709153838" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961709874165" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961710514162" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687696314583" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687720711088" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687720730774" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687721201072" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687721990879" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961674993823.csv</t>
+          <t>go_stims-16511687695873928.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961675154276.csv</t>
+          <t>GNG_stims-1651168769613583.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961675154276.csv</t>
+          <t>go_stims-16511687696155505.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961675314205.csv</t>
+          <t>GNG_stims-16511687696306753.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961694833794.csv</t>
+          <t>ZB-match_5-16511687701420736.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961704034219.csv</t>
+          <t>TB-16511687704069247.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961677394195.csv</t>
+          <t>OB-1651168770165066.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961708913774.csv</t>
+          <t>TB-16511687720608735.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961699074192.csv</t>
+          <t>ZB-match_1-16511687697035475.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961675633843.csv</t>
+          <t>OB-16511687702792926.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509961677633908.csv</t>
+          <t>TB-1651168771880595.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961685233817.csv</t>
+          <t>ZB-match_1-16511687699527915.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961680353801.csv</t>
+          <t>OB-1651168770231404.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961709474149.csv</t>
+          <t>MM_stims-16511687720869234.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961709233828.csv</t>
+          <t>ZM_stims-16511687720750763.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961709713814.csv</t>
+          <t>MM_stims-16511687721025147.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961709474149.csv</t>
+          <t>ZM_stims-16511687720869234.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961709874165.csv</t>
+          <t>MM_stims-16511687721191254.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961709713814.csv</t>
+          <t>ZM_stims-16511687721025147.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961710354185.csv</t>
+          <t>SAT_stims-1651168772124149.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996171003415.csv</t>
+          <t>vSAT_stims-16511687721674101.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961709874165.csv</t>
+          <t>vSAT_stims-1651168772183112.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961710194142.csv</t>
+          <t>SAT_stims-16511687721504402.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_38/participant_38_task_orders.xlsx
+++ b/participants/participant_38/participant_38_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687696314583" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687720711088" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687720730774" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687721201072" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687721990879" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555934644248" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555972321227" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555972341256" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555972801244" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555973591232" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687695873928.csv</t>
+          <t>go_stims-16512555934331725.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168769613583.csv</t>
+          <t>GNG_stims-16512555934488008.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687696155505.csv</t>
+          <t>go_stims-16512555934488008.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687696306753.csv</t>
+          <t>GNG_stims-16512555934644248.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687701420736.csv</t>
+          <t>ZB-match_2-16512555936798568.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687704069247.csv</t>
+          <t>TB-16512555972131233.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651168770165066.csv</t>
+          <t>ZB-match_2-16512555950096035.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687720608735.csv</t>
+          <t>TB-16512555966421237.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687697035475.csv</t>
+          <t>OB-16512555952796032.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687702792926.csv</t>
+          <t>TB-16512555964691257.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1651168771880595.csv</t>
+          <t>OB-16512555960491223.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687699527915.csv</t>
+          <t>ZB-match_5-1651255595030605.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168770231404.csv</t>
+          <t>OB-16512555954586048.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687720869234.csv</t>
+          <t>MM_stims-16512555972471254.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687720750763.csv</t>
+          <t>ZM_stims-16512555972361238.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687721025147.csv</t>
+          <t>MM_stims-16512555972631245.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687720869234.csv</t>
+          <t>ZM_stims-1651255597248125.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687721191254.csv</t>
+          <t>MM_stims-1651255597279124.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687721025147.csv</t>
+          <t>ZM_stims-1651255597264125.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168772124149.csv</t>
+          <t>SAT_stims-16512555972861235.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687721674101.csv</t>
+          <t>SAT_stims-16512555973111236.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168772183112.csv</t>
+          <t>vSAT_stims-16512555973431256.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687721504402.csv</t>
+          <t>vSAT_stims-1651255597327125.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_38/participant_38_task_orders.xlsx
+++ b/participants/participant_38/participant_38_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555934644248" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555972321227" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555972341256" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555972801244" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555973591232" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515890225330915" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515890241327631" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-1651589024165064" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515890241672518" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890242297542" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555934331725.csv</t>
+          <t>MM_stims-16515890225018747.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555934488008.csv</t>
+          <t>ZM_stims-16515890224862156.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555934488008.csv</t>
+          <t>MM_stims-16515890225174658.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555934644248.csv</t>
+          <t>ZM_stims-16515890225018747.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890225330915.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890225174658.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16512555936798568.csv</t>
+          <t>ZB-match_0-16515890225330915.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555972131233.csv</t>
+          <t>TB-1651589023311901.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16512555950096035.csv</t>
+          <t>OB-1651589023122213.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555966421237.csv</t>
+          <t>OB-16515890229168656.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512555952796032.csv</t>
+          <t>ZB-match_2-16515890226450932.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555964691257.csv</t>
+          <t>ZB-match_2-16515890226294625.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512555960491223.csv</t>
+          <t>OB-1651589023265058.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-1651255595030605.csv</t>
+          <t>TB-16515890239744625.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512555954586048.csv</t>
+          <t>TB-16515890241171384.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515890241327631.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651589024148388.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-1651589024148388.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890241640122.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555972471254.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555972361238.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555972631245.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255597248125.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255597279124.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255597264125.csv</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555972861235.csv</t>
+          <t>SAT_stims-16515890241672518.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555973111236.csv</t>
+          <t>vSAT_stims-16515890242141292.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555973431256.csv</t>
+          <t>SAT_stims-16515890241828804.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255597327125.csv</t>
+          <t>vSAT_stims-16515890241985042.csv</t>
         </is>
       </c>
     </row>
